--- a/MatricesAHP/R_AHP_CasoExtremo1.xlsx
+++ b/MatricesAHP/R_AHP_CasoExtremo1.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.05625598427795919</v>
+        <v>0.06859393436079969</v>
       </c>
     </row>
     <row r="3">
@@ -757,7 +757,7 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.05625598427795921</v>
+        <v>0.06859393436079969</v>
       </c>
     </row>
     <row r="4">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.1624719714882956</v>
+        <v>0.1451001396860344</v>
       </c>
     </row>
     <row r="5">
@@ -777,7 +777,7 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.05625598427795922</v>
+        <v>0.06859393436079965</v>
       </c>
     </row>
     <row r="6">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.1624719714882956</v>
+        <v>0.1451001396860344</v>
       </c>
     </row>
     <row r="7">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.1624719714882956</v>
+        <v>0.1451001396860344</v>
       </c>
     </row>
     <row r="8">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.01303228890122595</v>
+        <v>0.01428744057464852</v>
       </c>
     </row>
     <row r="9">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.01303228890122595</v>
+        <v>0.01428744057464852</v>
       </c>
     </row>
     <row r="10">
@@ -827,7 +827,7 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.05625598427795922</v>
+        <v>0.06859393436079965</v>
       </c>
     </row>
     <row r="11">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.05625598427795922</v>
+        <v>0.0697866565851307</v>
       </c>
     </row>
     <row r="12">
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.008351518526058709</v>
+        <v>0.008867907233478526</v>
       </c>
     </row>
     <row r="13">
@@ -857,7 +857,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.1624719714882956</v>
+        <v>0.1451001396860344</v>
       </c>
     </row>
     <row r="14">
@@ -867,7 +867,7 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.008351518526058709</v>
+        <v>0.009419377695460395</v>
       </c>
     </row>
     <row r="15">
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.01303228890122595</v>
+        <v>0.01428744057464852</v>
       </c>
     </row>
     <row r="16">
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.01303228890122595</v>
+        <v>0.01428744057464852</v>
       </c>
     </row>
   </sheetData>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.1160654090330438</v>
+        <v>0.1161686867745278</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.1108090270082264</v>
+        <v>0.1135151614696607</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1519,7 +1519,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.08834375475618236</v>
+        <v>0.08859478509086688</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.08570312046009682</v>
+        <v>0.08817071047666492</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1541,11 +1541,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Las Cañas</t>
+          <t>Placeres</t>
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.06453349381952492</v>
+        <v>0.06234583198288431</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1554,11 +1554,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Laguna Verde</t>
+          <t>Reina Isabel 2</t>
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.06123799889806936</v>
+        <v>0.06126973961633277</v>
       </c>
       <c r="C7" t="n">
         <v>6</v>
@@ -1567,11 +1567,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Puertas Negras</t>
+          <t>Las Cañas</t>
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.06108745539243028</v>
+        <v>0.06105912745907267</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
@@ -1580,11 +1580,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Reina Isabel 2</t>
+          <t>Quebrada Verde</t>
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.06101870928164826</v>
+        <v>0.06069805844247664</v>
       </c>
       <c r="C9" t="n">
         <v>8</v>
@@ -1593,11 +1593,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Quebrada Verde</t>
+          <t>Laguna Verde</t>
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.0604844866085963</v>
+        <v>0.05776363253761711</v>
       </c>
       <c r="C10" t="n">
         <v>9</v>
@@ -1606,11 +1606,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Placeres</t>
+          <t>Puertas Negras</t>
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.05987824196631622</v>
+        <v>0.05761308903197804</v>
       </c>
       <c r="C11" t="n">
         <v>10</v>
@@ -1619,11 +1619,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Esperanza</t>
+          <t>Cordillera</t>
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.0575794515818979</v>
+        <v>0.05575513621927968</v>
       </c>
       <c r="C12" t="n">
         <v>11</v>
@@ -1632,11 +1632,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Cordillera</t>
+          <t>Esperanza</t>
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.05328754620271158</v>
+        <v>0.05410508522144566</v>
       </c>
       <c r="C13" t="n">
         <v>12</v>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.05043889747074609</v>
+        <v>0.05290648748731419</v>
       </c>
       <c r="C14" t="n">
         <v>13</v>
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.04283786474069109</v>
+        <v>0.0430888950753756</v>
       </c>
       <c r="C15" t="n">
         <v>14</v>
@@ -1675,7 +1675,7 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.02669454277981875</v>
+        <v>0.02694557311450325</v>
       </c>
       <c r="C16" t="n">
         <v>15</v>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>0.05043889747074609</v>
+        <v>0.05290648748731419</v>
       </c>
     </row>
     <row r="3">
@@ -1733,7 +1733,7 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.05328754620271158</v>
+        <v>0.05575513621927968</v>
       </c>
     </row>
     <row r="4">
@@ -1743,7 +1743,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.0575794515818979</v>
+        <v>0.05410508522144566</v>
       </c>
     </row>
     <row r="5">
@@ -1753,7 +1753,7 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0.08570312046009682</v>
+        <v>0.08817071047666492</v>
       </c>
     </row>
     <row r="6">
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>0.06123799889806936</v>
+        <v>0.05776363253761711</v>
       </c>
     </row>
     <row r="7">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>0.06453349381952492</v>
+        <v>0.06105912745907267</v>
       </c>
     </row>
     <row r="8">
@@ -1783,7 +1783,7 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>0.08834375475618236</v>
+        <v>0.08859478509086688</v>
       </c>
     </row>
     <row r="9">
@@ -1793,7 +1793,7 @@
         </is>
       </c>
       <c r="B9" s="3" t="n">
-        <v>0.02669454277981875</v>
+        <v>0.02694557311450325</v>
       </c>
     </row>
     <row r="10">
@@ -1803,7 +1803,7 @@
         </is>
       </c>
       <c r="B10" s="3" t="n">
-        <v>0.05987824196631622</v>
+        <v>0.06234583198288431</v>
       </c>
     </row>
     <row r="11">
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="B11" s="3" t="n">
-        <v>0.1108090270082264</v>
+        <v>0.1135151614696607</v>
       </c>
     </row>
     <row r="12">
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.1160654090330438</v>
+        <v>0.1161686867745278</v>
       </c>
     </row>
     <row r="13">
@@ -1833,7 +1833,7 @@
         </is>
       </c>
       <c r="B13" s="3" t="n">
-        <v>0.06108745539243028</v>
+        <v>0.05761308903197804</v>
       </c>
     </row>
     <row r="14">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.0604844866085963</v>
+        <v>0.06069805844247664</v>
       </c>
     </row>
     <row r="15">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="B15" s="3" t="n">
-        <v>0.06101870928164826</v>
+        <v>0.06126973961633277</v>
       </c>
     </row>
     <row r="16">
@@ -1863,7 +1863,7 @@
         </is>
       </c>
       <c r="B16" s="3" t="n">
-        <v>0.04283786474069109</v>
+        <v>0.0430888950753756</v>
       </c>
     </row>
   </sheetData>
@@ -3117,16 +3117,16 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>7</v>
@@ -3144,10 +3144,10 @@
         <v>9</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>7</v>
@@ -3169,16 +3169,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>7</v>
@@ -3196,10 +3196,10 @@
         <v>9</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
         <v>7</v>
@@ -3215,16 +3215,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -3239,10 +3239,10 @@
         <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>9</v>
@@ -3273,16 +3273,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H5" t="n">
         <v>7</v>
@@ -3300,10 +3300,10 @@
         <v>9</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>7</v>
@@ -3319,16 +3319,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -3343,10 +3343,10 @@
         <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
         <v>9</v>
@@ -3371,16 +3371,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -3395,10 +3395,10 @@
         <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
         <v>9</v>
@@ -3533,16 +3533,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>7</v>
@@ -3560,10 +3560,10 @@
         <v>9</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>7</v>
@@ -3585,16 +3585,16 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>7</v>
@@ -3612,7 +3612,7 @@
         <v>9</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="N11" t="n">
         <v>9</v>
@@ -3683,16 +3683,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -3707,10 +3707,10 @@
         <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>9</v>
@@ -3735,16 +3735,16 @@
         </is>
       </c>
       <c r="B14" s="3" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>0.1111111111111111</v>
       </c>
       <c r="E14" s="3" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="F14" s="3" t="n">
         <v>0.1111111111111111</v>
@@ -3759,7 +3759,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>0.1111111111111111</v>
